--- a/first-train.xlsx
+++ b/first-train.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$1:$C$936</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$1:$C$1311</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1271,8 +1271,8 @@
   <sheetPr/>
   <dimension ref="A1:J1311"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A937" sqref="A937:J1311"/>
+    <sheetView tabSelected="1" topLeftCell="A1036" workbookViewId="0">
+      <selection activeCell="C937" sqref="C937:C1311"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -31240,7 +31240,7 @@
         <v>2340.5</v>
       </c>
       <c r="C937">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D937">
         <v>153.12</v>
@@ -31272,7 +31272,7 @@
         <v>2340.625</v>
       </c>
       <c r="C938">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D938">
         <v>145.975</v>
@@ -31304,7 +31304,7 @@
         <v>2340.75</v>
       </c>
       <c r="C939">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D939">
         <v>135.607</v>
@@ -31336,7 +31336,7 @@
         <v>2340.875</v>
       </c>
       <c r="C940">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D940">
         <v>121.661</v>
@@ -31368,7 +31368,7 @@
         <v>2341</v>
       </c>
       <c r="C941">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D941">
         <v>106.112</v>
@@ -31400,7 +31400,7 @@
         <v>2341.125</v>
       </c>
       <c r="C942">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D942">
         <v>92.999</v>
@@ -31432,7 +31432,7 @@
         <v>2341.25</v>
       </c>
       <c r="C943">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D943">
         <v>85.939</v>
@@ -31464,7 +31464,7 @@
         <v>2341.375</v>
       </c>
       <c r="C944">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D944">
         <v>86.238</v>
@@ -31496,7 +31496,7 @@
         <v>2341.5</v>
       </c>
       <c r="C945">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D945">
         <v>92.871</v>
@@ -31528,7 +31528,7 @@
         <v>2341.625</v>
       </c>
       <c r="C946">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D946">
         <v>104.034</v>
@@ -31560,7 +31560,7 @@
         <v>2341.75</v>
       </c>
       <c r="C947">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D947">
         <v>117.25</v>
@@ -31592,7 +31592,7 @@
         <v>2341.875</v>
       </c>
       <c r="C948">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D948">
         <v>129.089</v>
@@ -31624,7 +31624,7 @@
         <v>2342</v>
       </c>
       <c r="C949">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D949">
         <v>137.184</v>
@@ -31656,7 +31656,7 @@
         <v>2342.125</v>
       </c>
       <c r="C950">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D950">
         <v>141.09</v>
@@ -31688,7 +31688,7 @@
         <v>2342.25</v>
       </c>
       <c r="C951">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D951">
         <v>142.754</v>
@@ -31720,7 +31720,7 @@
         <v>2342.375</v>
       </c>
       <c r="C952">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D952">
         <v>144.312</v>
@@ -31752,7 +31752,7 @@
         <v>2342.5</v>
       </c>
       <c r="C953">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D953">
         <v>147.481</v>
@@ -31784,7 +31784,7 @@
         <v>2496.25</v>
       </c>
       <c r="C954">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D954">
         <v>151.802</v>
@@ -31816,7 +31816,7 @@
         <v>2496.375</v>
       </c>
       <c r="C955">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D955">
         <v>150.56</v>
@@ -31848,7 +31848,7 @@
         <v>2496.5</v>
       </c>
       <c r="C956">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D956">
         <v>148.415</v>
@@ -31880,7 +31880,7 @@
         <v>2496.625</v>
       </c>
       <c r="C957">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D957">
         <v>142.983</v>
@@ -31912,7 +31912,7 @@
         <v>2496.75</v>
       </c>
       <c r="C958">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D958">
         <v>133.234</v>
@@ -31944,7 +31944,7 @@
         <v>2496.875</v>
       </c>
       <c r="C959">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D959">
         <v>120.549</v>
@@ -31976,7 +31976,7 @@
         <v>2497</v>
       </c>
       <c r="C960">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D960">
         <v>108.453</v>
@@ -32008,7 +32008,7 @@
         <v>2497.125</v>
       </c>
       <c r="C961">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D961">
         <v>100.095</v>
@@ -32040,7 +32040,7 @@
         <v>2497.25</v>
       </c>
       <c r="C962">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D962">
         <v>96.446</v>
@@ -32072,7 +32072,7 @@
         <v>2497.375</v>
       </c>
       <c r="C963">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D963">
         <v>96.394</v>
@@ -32104,7 +32104,7 @@
         <v>2497.5</v>
       </c>
       <c r="C964">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D964">
         <v>99.797</v>
@@ -32136,7 +32136,7 @@
         <v>2497.625</v>
       </c>
       <c r="C965">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D965">
         <v>106.947</v>
@@ -32168,7 +32168,7 @@
         <v>2497.75</v>
       </c>
       <c r="C966">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D966">
         <v>116.84</v>
@@ -32200,7 +32200,7 @@
         <v>2497.875</v>
       </c>
       <c r="C967">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D967">
         <v>126.815</v>
@@ -32232,7 +32232,7 @@
         <v>2498</v>
       </c>
       <c r="C968">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D968">
         <v>134.138</v>
@@ -32264,7 +32264,7 @@
         <v>2498.125</v>
       </c>
       <c r="C969">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D969">
         <v>138.153</v>
@@ -32296,7 +32296,7 @@
         <v>2498.25</v>
       </c>
       <c r="C970">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D970">
         <v>139.942</v>
@@ -32328,7 +32328,7 @@
         <v>2498.375</v>
       </c>
       <c r="C971">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D971">
         <v>141.31</v>
@@ -32360,7 +32360,7 @@
         <v>2498.5</v>
       </c>
       <c r="C972">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D972">
         <v>144.403</v>
@@ -32392,7 +32392,7 @@
         <v>2332.811</v>
       </c>
       <c r="C973">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D973">
         <v>120.948</v>
@@ -32424,7 +32424,7 @@
         <v>2332.936</v>
       </c>
       <c r="C974">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D974">
         <v>114.038</v>
@@ -32456,7 +32456,7 @@
         <v>2333.061</v>
       </c>
       <c r="C975">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D975">
         <v>103.32</v>
@@ -32488,7 +32488,7 @@
         <v>2333.186</v>
       </c>
       <c r="C976">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D976">
         <v>91.981</v>
@@ -32520,7 +32520,7 @@
         <v>2333.311</v>
       </c>
       <c r="C977">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D977">
         <v>83.162</v>
@@ -32552,7 +32552,7 @@
         <v>2333.436</v>
       </c>
       <c r="C978">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D978">
         <v>79.071</v>
@@ -32584,7 +32584,7 @@
         <v>2333.561</v>
       </c>
       <c r="C979">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D979">
         <v>79.154</v>
@@ -32616,7 +32616,7 @@
         <v>2333.686</v>
       </c>
       <c r="C980">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D980">
         <v>82.979</v>
@@ -32648,7 +32648,7 @@
         <v>2333.811</v>
       </c>
       <c r="C981">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D981">
         <v>90.174</v>
@@ -32680,7 +32680,7 @@
         <v>2333.936</v>
       </c>
       <c r="C982">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D982">
         <v>100.108</v>
@@ -32712,7 +32712,7 @@
         <v>2334.061</v>
       </c>
       <c r="C983">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D983">
         <v>110.789</v>
@@ -32744,7 +32744,7 @@
         <v>2334.186</v>
       </c>
       <c r="C984">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D984">
         <v>118.675</v>
@@ -32776,7 +32776,7 @@
         <v>2334.311</v>
       </c>
       <c r="C985">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D985">
         <v>122.528</v>
@@ -32808,7 +32808,7 @@
         <v>2413.75</v>
       </c>
       <c r="C986">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D986">
         <v>137.96</v>
@@ -32837,7 +32837,7 @@
         <v>2413.875</v>
       </c>
       <c r="C987">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D987">
         <v>131.911</v>
@@ -32866,7 +32866,7 @@
         <v>2414</v>
       </c>
       <c r="C988">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D988">
         <v>124.458</v>
@@ -32895,7 +32895,7 @@
         <v>2414.125</v>
       </c>
       <c r="C989">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D989">
         <v>116.638</v>
@@ -32924,7 +32924,7 @@
         <v>2414.25</v>
       </c>
       <c r="C990">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D990">
         <v>110.011</v>
@@ -32953,7 +32953,7 @@
         <v>2414.375</v>
       </c>
       <c r="C991">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D991">
         <v>104.65</v>
@@ -32982,7 +32982,7 @@
         <v>2414.5</v>
       </c>
       <c r="C992">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D992">
         <v>100.639</v>
@@ -33011,7 +33011,7 @@
         <v>2414.625</v>
       </c>
       <c r="C993">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D993">
         <v>98.641</v>
@@ -33040,7 +33040,7 @@
         <v>2414.75</v>
       </c>
       <c r="C994">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D994">
         <v>98.65</v>
@@ -33069,7 +33069,7 @@
         <v>2414.875</v>
       </c>
       <c r="C995">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D995">
         <v>99.89</v>
@@ -33098,7 +33098,7 @@
         <v>2415</v>
       </c>
       <c r="C996">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D996">
         <v>101.481</v>
@@ -33127,7 +33127,7 @@
         <v>2415.125</v>
       </c>
       <c r="C997">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D997">
         <v>103.575</v>
@@ -33156,7 +33156,7 @@
         <v>2415.25</v>
       </c>
       <c r="C998">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D998">
         <v>106.644</v>
@@ -33185,7 +33185,7 @@
         <v>2415.375</v>
       </c>
       <c r="C999">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D999">
         <v>110.897</v>
@@ -33214,7 +33214,7 @@
         <v>2415.5</v>
       </c>
       <c r="C1000">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1000">
         <v>116.311</v>
@@ -33243,7 +33243,7 @@
         <v>2415.625</v>
       </c>
       <c r="C1001">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1001">
         <v>122.57</v>
@@ -33272,7 +33272,7 @@
         <v>2415.75</v>
       </c>
       <c r="C1002">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1002">
         <v>128.671</v>
@@ -33301,7 +33301,7 @@
         <v>2415.875</v>
       </c>
       <c r="C1003">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1003">
         <v>132.972</v>
@@ -33330,7 +33330,7 @@
         <v>2434</v>
       </c>
       <c r="C1004">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1004">
         <v>109.683</v>
@@ -33356,7 +33356,7 @@
         <v>2434.125</v>
       </c>
       <c r="C1005">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1005">
         <v>107.287</v>
@@ -33382,7 +33382,7 @@
         <v>2434.25</v>
       </c>
       <c r="C1006">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1006">
         <v>105.379</v>
@@ -33408,7 +33408,7 @@
         <v>2434.375</v>
       </c>
       <c r="C1007">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1007">
         <v>102.418</v>
@@ -33434,7 +33434,7 @@
         <v>2434.5</v>
       </c>
       <c r="C1008">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1008">
         <v>97.868</v>
@@ -33460,7 +33460,7 @@
         <v>2434.625</v>
       </c>
       <c r="C1009">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1009">
         <v>92.138</v>
@@ -33486,7 +33486,7 @@
         <v>2434.75</v>
       </c>
       <c r="C1010">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1010">
         <v>86.252</v>
@@ -33512,7 +33512,7 @@
         <v>2434.875</v>
       </c>
       <c r="C1011">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1011">
         <v>81.074</v>
@@ -33538,7 +33538,7 @@
         <v>2435</v>
       </c>
       <c r="C1012">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1012">
         <v>77.027</v>
@@ -33564,7 +33564,7 @@
         <v>2435.125</v>
       </c>
       <c r="C1013">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1013">
         <v>74.356</v>
@@ -33590,7 +33590,7 @@
         <v>2435.25</v>
       </c>
       <c r="C1014">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1014">
         <v>72.853</v>
@@ -33616,7 +33616,7 @@
         <v>2435.375</v>
       </c>
       <c r="C1015">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1015">
         <v>73.028</v>
@@ -33642,7 +33642,7 @@
         <v>2435.5</v>
       </c>
       <c r="C1016">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1016">
         <v>75.003</v>
@@ -33668,7 +33668,7 @@
         <v>2435.625</v>
       </c>
       <c r="C1017">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1017">
         <v>77.782</v>
@@ -33694,7 +33694,7 @@
         <v>2435.75</v>
       </c>
       <c r="C1018">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1018">
         <v>81.061</v>
@@ -33720,7 +33720,7 @@
         <v>2435.875</v>
       </c>
       <c r="C1019">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1019">
         <v>85.012</v>
@@ -33746,7 +33746,7 @@
         <v>2436</v>
       </c>
       <c r="C1020">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1020">
         <v>88.622</v>
@@ -33772,7 +33772,7 @@
         <v>2436.125</v>
       </c>
       <c r="C1021">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1021">
         <v>92.902</v>
@@ -33798,7 +33798,7 @@
         <v>2436.25</v>
       </c>
       <c r="C1022">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1022">
         <v>98.337</v>
@@ -33824,7 +33824,7 @@
         <v>2436.375</v>
       </c>
       <c r="C1023">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1023">
         <v>103.125</v>
@@ -33850,7 +33850,7 @@
         <v>2436.5</v>
       </c>
       <c r="C1024">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1024">
         <v>107.021</v>
@@ -33876,7 +33876,7 @@
         <v>2436.625</v>
       </c>
       <c r="C1025">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1025">
         <v>109.41</v>
@@ -33902,7 +33902,7 @@
         <v>2436.75</v>
       </c>
       <c r="C1026">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1026">
         <v>110.785</v>
@@ -33928,7 +33928,7 @@
         <v>2382.0288</v>
       </c>
       <c r="C1027">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1027">
         <v>138.174</v>
@@ -33957,7 +33957,7 @@
         <v>2382.0669</v>
       </c>
       <c r="C1028">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1028">
         <v>136.283</v>
@@ -33986,7 +33986,7 @@
         <v>2382.105</v>
       </c>
       <c r="C1029">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1029">
         <v>134.403</v>
@@ -34015,7 +34015,7 @@
         <v>2382.1431</v>
       </c>
       <c r="C1030">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1030">
         <v>132.52</v>
@@ -34044,7 +34044,7 @@
         <v>2382.1812</v>
       </c>
       <c r="C1031">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1031">
         <v>130.628</v>
@@ -34073,7 +34073,7 @@
         <v>2382.2192</v>
       </c>
       <c r="C1032">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1032">
         <v>128.735</v>
@@ -34102,7 +34102,7 @@
         <v>2382.2573</v>
       </c>
       <c r="C1033">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1033">
         <v>126.801</v>
@@ -34131,7 +34131,7 @@
         <v>2382.2954</v>
       </c>
       <c r="C1034">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1034">
         <v>124.663</v>
@@ -34160,7 +34160,7 @@
         <v>2382.3335</v>
       </c>
       <c r="C1035">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1035">
         <v>122.539</v>
@@ -34189,7 +34189,7 @@
         <v>2382.3718</v>
       </c>
       <c r="C1036">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1036">
         <v>120.469</v>
@@ -34218,7 +34218,7 @@
         <v>2382.4099</v>
       </c>
       <c r="C1037">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1037">
         <v>118.495</v>
@@ -34247,7 +34247,7 @@
         <v>2382.448</v>
       </c>
       <c r="C1038">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1038">
         <v>116.551</v>
@@ -34276,7 +34276,7 @@
         <v>2382.4861</v>
       </c>
       <c r="C1039">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1039">
         <v>114.607</v>
@@ -34305,7 +34305,7 @@
         <v>2382.5242</v>
       </c>
       <c r="C1040">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1040">
         <v>112.822</v>
@@ -34334,7 +34334,7 @@
         <v>2382.5623</v>
       </c>
       <c r="C1041">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1041">
         <v>111.038</v>
@@ -34363,7 +34363,7 @@
         <v>2382.6003</v>
       </c>
       <c r="C1042">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1042">
         <v>109.298</v>
@@ -34392,7 +34392,7 @@
         <v>2382.6384</v>
       </c>
       <c r="C1043">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1043">
         <v>107.751</v>
@@ -34421,7 +34421,7 @@
         <v>2382.6765</v>
       </c>
       <c r="C1044">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1044">
         <v>106.61</v>
@@ -34450,7 +34450,7 @@
         <v>2382.7146</v>
       </c>
       <c r="C1045">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1045">
         <v>105.448</v>
@@ -34479,7 +34479,7 @@
         <v>2382.7527</v>
       </c>
       <c r="C1046">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1046">
         <v>104.314</v>
@@ -34508,7 +34508,7 @@
         <v>2382.7908</v>
       </c>
       <c r="C1047">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1047">
         <v>103.66</v>
@@ -34537,7 +34537,7 @@
         <v>2382.8289</v>
       </c>
       <c r="C1048">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1048">
         <v>103.011</v>
@@ -34566,7 +34566,7 @@
         <v>2382.8669</v>
       </c>
       <c r="C1049">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1049">
         <v>102.357</v>
@@ -34595,7 +34595,7 @@
         <v>2382.905</v>
       </c>
       <c r="C1050">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1050">
         <v>102.286</v>
@@ -34624,7 +34624,7 @@
         <v>2382.9431</v>
       </c>
       <c r="C1051">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1051">
         <v>102.37</v>
@@ -34653,7 +34653,7 @@
         <v>2382.9812</v>
       </c>
       <c r="C1052">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1052">
         <v>102.633</v>
@@ -34682,7 +34682,7 @@
         <v>2383.0193</v>
       </c>
       <c r="C1053">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1053">
         <v>102.9</v>
@@ -34711,7 +34711,7 @@
         <v>2383.0576</v>
       </c>
       <c r="C1054">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1054">
         <v>103.693</v>
@@ -34740,7 +34740,7 @@
         <v>2383.0957</v>
       </c>
       <c r="C1055">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1055">
         <v>104.481</v>
@@ -34769,7 +34769,7 @@
         <v>2383.1338</v>
       </c>
       <c r="C1056">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1056">
         <v>105.339</v>
@@ -34798,7 +34798,7 @@
         <v>2383.1719</v>
       </c>
       <c r="C1057">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1057">
         <v>106.536</v>
@@ -34827,7 +34827,7 @@
         <v>2383.21</v>
       </c>
       <c r="C1058">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1058">
         <v>107.744</v>
@@ -34856,7 +34856,7 @@
         <v>2383.248</v>
       </c>
       <c r="C1059">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1059">
         <v>108.944</v>
@@ -34885,7 +34885,7 @@
         <v>2383.2861</v>
       </c>
       <c r="C1060">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1060">
         <v>110.579</v>
@@ -34914,7 +34914,7 @@
         <v>2383.3242</v>
       </c>
       <c r="C1061">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1061">
         <v>112.214</v>
@@ -34943,7 +34943,7 @@
         <v>2383.3623</v>
       </c>
       <c r="C1062">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1062">
         <v>113.853</v>
@@ -34972,7 +34972,7 @@
         <v>2383.4004</v>
       </c>
       <c r="C1063">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1063">
         <v>115.679</v>
@@ -35001,7 +35001,7 @@
         <v>2383.4385</v>
       </c>
       <c r="C1064">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1064">
         <v>117.579</v>
@@ -35030,7 +35030,7 @@
         <v>2383.4766</v>
       </c>
       <c r="C1065">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1065">
         <v>119.433</v>
@@ -35059,7 +35059,7 @@
         <v>2383.5146</v>
       </c>
       <c r="C1066">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1066">
         <v>121.277</v>
@@ -35088,7 +35088,7 @@
         <v>2383.5527</v>
       </c>
       <c r="C1067">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1067">
         <v>122.997</v>
@@ -35117,7 +35117,7 @@
         <v>2383.5908</v>
       </c>
       <c r="C1068">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1068">
         <v>124.716</v>
@@ -35146,7 +35146,7 @@
         <v>2383.6289</v>
       </c>
       <c r="C1069">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1069">
         <v>126.428</v>
@@ -35175,7 +35175,7 @@
         <v>3359.5</v>
       </c>
       <c r="C1070">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1070">
         <v>132.711</v>
@@ -35201,7 +35201,7 @@
         <v>3359.625</v>
       </c>
       <c r="C1071">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1071">
         <v>122.256</v>
@@ -35227,7 +35227,7 @@
         <v>3359.75</v>
       </c>
       <c r="C1072">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1072">
         <v>114.533</v>
@@ -35253,7 +35253,7 @@
         <v>3359.875</v>
       </c>
       <c r="C1073">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1073">
         <v>109.87</v>
@@ -35279,7 +35279,7 @@
         <v>3360</v>
       </c>
       <c r="C1074">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1074">
         <v>108.125</v>
@@ -35305,7 +35305,7 @@
         <v>3360.125</v>
       </c>
       <c r="C1075">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1075">
         <v>108.945</v>
@@ -35331,7 +35331,7 @@
         <v>3360.25</v>
       </c>
       <c r="C1076">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1076">
         <v>111.251</v>
@@ -35357,7 +35357,7 @@
         <v>3360.375</v>
       </c>
       <c r="C1077">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1077">
         <v>113.915</v>
@@ -35383,7 +35383,7 @@
         <v>3360.5</v>
       </c>
       <c r="C1078">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1078">
         <v>117.117</v>
@@ -35409,7 +35409,7 @@
         <v>3360.625</v>
       </c>
       <c r="C1079">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1079">
         <v>121.714</v>
@@ -35435,7 +35435,7 @@
         <v>3360.75</v>
       </c>
       <c r="C1080">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1080">
         <v>127.734</v>
@@ -35461,7 +35461,7 @@
         <v>3360.875</v>
       </c>
       <c r="C1081">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1081">
         <v>134.6</v>
@@ -35487,7 +35487,7 @@
         <v>3361</v>
       </c>
       <c r="C1082">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1082">
         <v>142.285</v>
@@ -35513,7 +35513,7 @@
         <v>3361.125</v>
       </c>
       <c r="C1083">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1083">
         <v>151.201</v>
@@ -35539,7 +35539,7 @@
         <v>3361.25</v>
       </c>
       <c r="C1084">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1084">
         <v>160.7</v>
@@ -35565,7 +35565,7 @@
         <v>3479.5</v>
       </c>
       <c r="C1085">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1085">
         <v>179.151</v>
@@ -35594,7 +35594,7 @@
         <v>3479.625</v>
       </c>
       <c r="C1086">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1086">
         <v>175.857</v>
@@ -35623,7 +35623,7 @@
         <v>3479.75</v>
       </c>
       <c r="C1087">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1087">
         <v>172.499</v>
@@ -35652,7 +35652,7 @@
         <v>3479.875</v>
       </c>
       <c r="C1088">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1088">
         <v>170.467</v>
@@ -35681,7 +35681,7 @@
         <v>3480</v>
       </c>
       <c r="C1089">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1089">
         <v>169.318</v>
@@ -35710,7 +35710,7 @@
         <v>3480.125</v>
       </c>
       <c r="C1090">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1090">
         <v>165.921</v>
@@ -35739,7 +35739,7 @@
         <v>3480.25</v>
       </c>
       <c r="C1091">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1091">
         <v>157.87</v>
@@ -35768,7 +35768,7 @@
         <v>3480.375</v>
       </c>
       <c r="C1092">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1092">
         <v>145.033</v>
@@ -35797,7 +35797,7 @@
         <v>3480.5</v>
       </c>
       <c r="C1093">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1093">
         <v>131.185</v>
@@ -35826,7 +35826,7 @@
         <v>3480.625</v>
       </c>
       <c r="C1094">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1094">
         <v>120.26</v>
@@ -35855,7 +35855,7 @@
         <v>3480.75</v>
       </c>
       <c r="C1095">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1095">
         <v>114.884</v>
@@ -35884,7 +35884,7 @@
         <v>3480.875</v>
       </c>
       <c r="C1096">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1096">
         <v>114.542</v>
@@ -35913,7 +35913,7 @@
         <v>3481</v>
       </c>
       <c r="C1097">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1097">
         <v>116.97</v>
@@ -35942,7 +35942,7 @@
         <v>3481.125</v>
       </c>
       <c r="C1098">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1098">
         <v>118.944</v>
@@ -35971,7 +35971,7 @@
         <v>3481.25</v>
       </c>
       <c r="C1099">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1099">
         <v>119.412</v>
@@ -36000,7 +36000,7 @@
         <v>3481.375</v>
       </c>
       <c r="C1100">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1100">
         <v>120.673</v>
@@ -36029,7 +36029,7 @@
         <v>3481.5</v>
       </c>
       <c r="C1101">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1101">
         <v>125.64</v>
@@ -36058,7 +36058,7 @@
         <v>3481.625</v>
       </c>
       <c r="C1102">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1102">
         <v>134.124</v>
@@ -36087,7 +36087,7 @@
         <v>3481.75</v>
       </c>
       <c r="C1103">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1103">
         <v>143.382</v>
@@ -36116,7 +36116,7 @@
         <v>3481.875</v>
       </c>
       <c r="C1104">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1104">
         <v>151.695</v>
@@ -36145,7 +36145,7 @@
         <v>3482</v>
       </c>
       <c r="C1105">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1105">
         <v>159.056</v>
@@ -36174,7 +36174,7 @@
         <v>3482.125</v>
       </c>
       <c r="C1106">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1106">
         <v>165.644</v>
@@ -36203,7 +36203,7 @@
         <v>3482.25</v>
       </c>
       <c r="C1107">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1107">
         <v>170.929</v>
@@ -36232,7 +36232,7 @@
         <v>3482.375</v>
       </c>
       <c r="C1108">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1108">
         <v>173.979</v>
@@ -36261,7 +36261,7 @@
         <v>3482.5</v>
       </c>
       <c r="C1109">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1109">
         <v>174.154</v>
@@ -36290,7 +36290,7 @@
         <v>3482.625</v>
       </c>
       <c r="C1110">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1110">
         <v>172.261</v>
@@ -36319,7 +36319,7 @@
         <v>3482.75</v>
       </c>
       <c r="C1111">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1111">
         <v>169.711</v>
@@ -36348,7 +36348,7 @@
         <v>3040.25</v>
       </c>
       <c r="C1112">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1112">
         <v>141.736</v>
@@ -36374,7 +36374,7 @@
         <v>3040.375</v>
       </c>
       <c r="C1113">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1113">
         <v>129.887</v>
@@ -36400,7 +36400,7 @@
         <v>3040.5</v>
       </c>
       <c r="C1114">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1114">
         <v>118.471</v>
@@ -36426,7 +36426,7 @@
         <v>3040.625</v>
       </c>
       <c r="C1115">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1115">
         <v>109.224</v>
@@ -36452,7 +36452,7 @@
         <v>3040.75</v>
       </c>
       <c r="C1116">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1116">
         <v>102.908</v>
@@ -36478,7 +36478,7 @@
         <v>3040.875</v>
       </c>
       <c r="C1117">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1117">
         <v>100.02</v>
@@ -36504,7 +36504,7 @@
         <v>3041</v>
       </c>
       <c r="C1118">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1118">
         <v>99.68</v>
@@ -36530,7 +36530,7 @@
         <v>3041.125</v>
       </c>
       <c r="C1119">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1119">
         <v>101.063</v>
@@ -36556,7 +36556,7 @@
         <v>3041.25</v>
       </c>
       <c r="C1120">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1120">
         <v>103.622</v>
@@ -36582,7 +36582,7 @@
         <v>3041.375</v>
       </c>
       <c r="C1121">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1121">
         <v>106.835</v>
@@ -36608,7 +36608,7 @@
         <v>3041.5</v>
       </c>
       <c r="C1122">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1122">
         <v>110.576</v>
@@ -36634,7 +36634,7 @@
         <v>3041.625</v>
       </c>
       <c r="C1123">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1123">
         <v>114.917</v>
@@ -36660,7 +36660,7 @@
         <v>3041.75</v>
       </c>
       <c r="C1124">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1124">
         <v>119.938</v>
@@ -36686,7 +36686,7 @@
         <v>3041.875</v>
       </c>
       <c r="C1125">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1125">
         <v>125.755</v>
@@ -36712,7 +36712,7 @@
         <v>3042</v>
       </c>
       <c r="C1126">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1126">
         <v>132.199</v>
@@ -36738,7 +36738,7 @@
         <v>3042.125</v>
       </c>
       <c r="C1127">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1127">
         <v>138.836</v>
@@ -36764,7 +36764,7 @@
         <v>3042.25</v>
       </c>
       <c r="C1128">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1128">
         <v>145.076</v>
@@ -36790,7 +36790,7 @@
         <v>3042.375</v>
       </c>
       <c r="C1129">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1129">
         <v>150.328</v>
@@ -36816,7 +36816,7 @@
         <v>3042.5</v>
       </c>
       <c r="C1130">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1130">
         <v>154.31</v>
@@ -36842,7 +36842,7 @@
         <v>3123.5</v>
       </c>
       <c r="C1131">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1131">
         <v>160.335</v>
@@ -36868,7 +36868,7 @@
         <v>3123.625</v>
       </c>
       <c r="C1132">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1132">
         <v>158.362</v>
@@ -36894,7 +36894,7 @@
         <v>3123.75</v>
       </c>
       <c r="C1133">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1133">
         <v>155.064</v>
@@ -36920,7 +36920,7 @@
         <v>3123.875</v>
       </c>
       <c r="C1134">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1134">
         <v>149.721</v>
@@ -36946,7 +36946,7 @@
         <v>3124</v>
       </c>
       <c r="C1135">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1135">
         <v>141.676</v>
@@ -36972,7 +36972,7 @@
         <v>3124.125</v>
       </c>
       <c r="C1136">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1136">
         <v>131.282</v>
@@ -36998,7 +36998,7 @@
         <v>3124.25</v>
       </c>
       <c r="C1137">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1137">
         <v>120.36</v>
@@ -37024,7 +37024,7 @@
         <v>3124.375</v>
       </c>
       <c r="C1138">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1138">
         <v>111.428</v>
@@ -37050,7 +37050,7 @@
         <v>3124.5</v>
       </c>
       <c r="C1139">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1139">
         <v>106.064</v>
@@ -37076,7 +37076,7 @@
         <v>3124.625</v>
       </c>
       <c r="C1140">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1140">
         <v>104.312</v>
@@ -37102,7 +37102,7 @@
         <v>3124.75</v>
       </c>
       <c r="C1141">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1141">
         <v>104.657</v>
@@ -37128,7 +37128,7 @@
         <v>3124.875</v>
       </c>
       <c r="C1142">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1142">
         <v>105.486</v>
@@ -37154,7 +37154,7 @@
         <v>3125</v>
       </c>
       <c r="C1143">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1143">
         <v>106.65</v>
@@ -37180,7 +37180,7 @@
         <v>3125.125</v>
       </c>
       <c r="C1144">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1144">
         <v>109.742</v>
@@ -37206,7 +37206,7 @@
         <v>3125.25</v>
       </c>
       <c r="C1145">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1145">
         <v>116.135</v>
@@ -37232,7 +37232,7 @@
         <v>3125.375</v>
       </c>
       <c r="C1146">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1146">
         <v>124.884</v>
@@ -37258,7 +37258,7 @@
         <v>3125.5</v>
       </c>
       <c r="C1147">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1147">
         <v>133.8</v>
@@ -37284,7 +37284,7 @@
         <v>3125.625</v>
       </c>
       <c r="C1148">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1148">
         <v>141.541</v>
@@ -37310,7 +37310,7 @@
         <v>3125.75</v>
       </c>
       <c r="C1149">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1149">
         <v>148.349</v>
@@ -37336,7 +37336,7 @@
         <v>3125.875</v>
       </c>
       <c r="C1150">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1150">
         <v>154.473</v>
@@ -37362,7 +37362,7 @@
         <v>3126</v>
       </c>
       <c r="C1151">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1151">
         <v>159.513</v>
@@ -37388,7 +37388,7 @@
         <v>2925.5</v>
       </c>
       <c r="C1152">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1152">
         <v>179.717</v>
@@ -37414,7 +37414,7 @@
         <v>2925.625</v>
       </c>
       <c r="C1153">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1153">
         <v>172.425</v>
@@ -37440,7 +37440,7 @@
         <v>2925.75</v>
       </c>
       <c r="C1154">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1154">
         <v>158.673</v>
@@ -37466,7 +37466,7 @@
         <v>2925.875</v>
       </c>
       <c r="C1155">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1155">
         <v>140.748</v>
@@ -37492,7 +37492,7 @@
         <v>2926</v>
       </c>
       <c r="C1156">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1156">
         <v>124.324</v>
@@ -37518,7 +37518,7 @@
         <v>2926.125</v>
       </c>
       <c r="C1157">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1157">
         <v>114.884</v>
@@ -37544,7 +37544,7 @@
         <v>2926.25</v>
       </c>
       <c r="C1158">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1158">
         <v>112.044</v>
@@ -37570,7 +37570,7 @@
         <v>2926.375</v>
       </c>
       <c r="C1159">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1159">
         <v>112.722</v>
@@ -37596,7 +37596,7 @@
         <v>2926.5</v>
       </c>
       <c r="C1160">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1160">
         <v>113.731</v>
@@ -37622,7 +37622,7 @@
         <v>2926.625</v>
       </c>
       <c r="C1161">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1161">
         <v>113.584</v>
@@ -37648,7 +37648,7 @@
         <v>2926.75</v>
       </c>
       <c r="C1162">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1162">
         <v>112.893</v>
@@ -37674,7 +37674,7 @@
         <v>2926.875</v>
       </c>
       <c r="C1163">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1163">
         <v>114.647</v>
@@ -37700,7 +37700,7 @@
         <v>2927</v>
       </c>
       <c r="C1164">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1164">
         <v>121.039</v>
@@ -37726,7 +37726,7 @@
         <v>2927.125</v>
       </c>
       <c r="C1165">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1165">
         <v>132.612</v>
@@ -37752,7 +37752,7 @@
         <v>2927.25</v>
       </c>
       <c r="C1166">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1166">
         <v>146.193</v>
@@ -37778,7 +37778,7 @@
         <v>2927.375</v>
       </c>
       <c r="C1167">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1167">
         <v>157.69</v>
@@ -37804,7 +37804,7 @@
         <v>2927.5</v>
       </c>
       <c r="C1168">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1168">
         <v>164.79</v>
@@ -37830,7 +37830,7 @@
         <v>2927.625</v>
       </c>
       <c r="C1169">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1169">
         <v>168.996</v>
@@ -37856,7 +37856,7 @@
         <v>2927.75</v>
       </c>
       <c r="C1170">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1170">
         <v>172.526</v>
@@ -37882,7 +37882,7 @@
         <v>2927.875</v>
       </c>
       <c r="C1171">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1171">
         <v>175.385</v>
@@ -37908,7 +37908,7 @@
         <v>2928</v>
       </c>
       <c r="C1172">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1172">
         <v>176.805</v>
@@ -37934,7 +37934,7 @@
         <v>2928.125</v>
       </c>
       <c r="C1173">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1173">
         <v>176.57</v>
@@ -37960,7 +37960,7 @@
         <v>2928.25</v>
       </c>
       <c r="C1174">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1174">
         <v>175.239</v>
@@ -37986,7 +37986,7 @@
         <v>2928.375</v>
       </c>
       <c r="C1175">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1175">
         <v>174.158</v>
@@ -38012,7 +38012,7 @@
         <v>2928.5</v>
       </c>
       <c r="C1176">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1176">
         <v>174.515</v>
@@ -38038,7 +38038,7 @@
         <v>2928.625</v>
       </c>
       <c r="C1177">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1177">
         <v>177.471</v>
@@ -38064,7 +38064,7 @@
         <v>2928.75</v>
       </c>
       <c r="C1178">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1178">
         <v>182.373</v>
@@ -38090,7 +38090,7 @@
         <v>3066.5</v>
       </c>
       <c r="C1179">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1179">
         <v>146.812</v>
@@ -38116,7 +38116,7 @@
         <v>3066.625</v>
       </c>
       <c r="C1180">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1180">
         <v>146.935</v>
@@ -38142,7 +38142,7 @@
         <v>3066.75</v>
       </c>
       <c r="C1181">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1181">
         <v>147.631</v>
@@ -38168,7 +38168,7 @@
         <v>3066.875</v>
       </c>
       <c r="C1182">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1182">
         <v>148.275</v>
@@ -38194,7 +38194,7 @@
         <v>3067</v>
       </c>
       <c r="C1183">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1183">
         <v>148.113</v>
@@ -38220,7 +38220,7 @@
         <v>3067.125</v>
       </c>
       <c r="C1184">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1184">
         <v>146.801</v>
@@ -38246,7 +38246,7 @@
         <v>3067.25</v>
       </c>
       <c r="C1185">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1185">
         <v>144.294</v>
@@ -38272,7 +38272,7 @@
         <v>3067.375</v>
       </c>
       <c r="C1186">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1186">
         <v>140.739</v>
@@ -38298,7 +38298,7 @@
         <v>3067.5</v>
       </c>
       <c r="C1187">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1187">
         <v>136.367</v>
@@ -38324,7 +38324,7 @@
         <v>3067.625</v>
       </c>
       <c r="C1188">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1188">
         <v>131.575</v>
@@ -38350,7 +38350,7 @@
         <v>3067.75</v>
       </c>
       <c r="C1189">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1189">
         <v>126.565</v>
@@ -38376,7 +38376,7 @@
         <v>3067.875</v>
       </c>
       <c r="C1190">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1190">
         <v>121.255</v>
@@ -38402,7 +38402,7 @@
         <v>3068</v>
       </c>
       <c r="C1191">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1191">
         <v>115.656</v>
@@ -38428,7 +38428,7 @@
         <v>3068.125</v>
       </c>
       <c r="C1192">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1192">
         <v>109.897</v>
@@ -38454,7 +38454,7 @@
         <v>3068.25</v>
       </c>
       <c r="C1193">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1193">
         <v>104.209</v>
@@ -38480,7 +38480,7 @@
         <v>3068.375</v>
       </c>
       <c r="C1194">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1194">
         <v>99.027</v>
@@ -38506,7 +38506,7 @@
         <v>3068.5</v>
       </c>
       <c r="C1195">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1195">
         <v>94.662</v>
@@ -38532,7 +38532,7 @@
         <v>3068.625</v>
       </c>
       <c r="C1196">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1196">
         <v>91.462</v>
@@ -38558,7 +38558,7 @@
         <v>3068.75</v>
       </c>
       <c r="C1197">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1197">
         <v>89.63</v>
@@ -38584,7 +38584,7 @@
         <v>3068.875</v>
       </c>
       <c r="C1198">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1198">
         <v>89.1</v>
@@ -38610,7 +38610,7 @@
         <v>3069</v>
       </c>
       <c r="C1199">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1199">
         <v>89.992</v>
@@ -38636,7 +38636,7 @@
         <v>3069.125</v>
       </c>
       <c r="C1200">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1200">
         <v>91.776</v>
@@ -38662,7 +38662,7 @@
         <v>3069.25</v>
       </c>
       <c r="C1201">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1201">
         <v>94.464</v>
@@ -38688,7 +38688,7 @@
         <v>3069.375</v>
       </c>
       <c r="C1202">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1202">
         <v>98.095</v>
@@ -38714,7 +38714,7 @@
         <v>3069.5</v>
       </c>
       <c r="C1203">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1203">
         <v>102.716</v>
@@ -38740,7 +38740,7 @@
         <v>3069.625</v>
       </c>
       <c r="C1204">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1204">
         <v>108.52</v>
@@ -38766,7 +38766,7 @@
         <v>3069.75</v>
       </c>
       <c r="C1205">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1205">
         <v>114.793</v>
@@ -38792,7 +38792,7 @@
         <v>3069.875</v>
       </c>
       <c r="C1206">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1206">
         <v>120.92</v>
@@ -38818,7 +38818,7 @@
         <v>3070</v>
       </c>
       <c r="C1207">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1207">
         <v>126.351</v>
@@ -38844,7 +38844,7 @@
         <v>3070.125</v>
       </c>
       <c r="C1208">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1208">
         <v>130.604</v>
@@ -38870,7 +38870,7 @@
         <v>3070.25</v>
       </c>
       <c r="C1209">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1209">
         <v>133.336</v>
@@ -38896,7 +38896,7 @@
         <v>3070.375</v>
       </c>
       <c r="C1210">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1210">
         <v>134.278</v>
@@ -38922,7 +38922,7 @@
         <v>3070.5</v>
       </c>
       <c r="C1211">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1211">
         <v>134.407</v>
@@ -38948,7 +38948,7 @@
         <v>3070.625</v>
       </c>
       <c r="C1212">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1212">
         <v>134.206</v>
@@ -38974,7 +38974,7 @@
         <v>3070.75</v>
       </c>
       <c r="C1213">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1213">
         <v>134.065</v>
@@ -39000,7 +39000,7 @@
         <v>3070.875</v>
       </c>
       <c r="C1214">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1214">
         <v>134.278</v>
@@ -39026,7 +39026,7 @@
         <v>3071</v>
       </c>
       <c r="C1215">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1215">
         <v>135.089</v>
@@ -39052,7 +39052,7 @@
         <v>3071.125</v>
       </c>
       <c r="C1216">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1216">
         <v>136.195</v>
@@ -39078,7 +39078,7 @@
         <v>3071.25</v>
       </c>
       <c r="C1217">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1217">
         <v>137.395</v>
@@ -39104,7 +39104,7 @@
         <v>3071.375</v>
       </c>
       <c r="C1218">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1218">
         <v>138.626</v>
@@ -39130,7 +39130,7 @@
         <v>3071.5</v>
       </c>
       <c r="C1219">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1219">
         <v>139.976</v>
@@ -39156,7 +39156,7 @@
         <v>3134.27</v>
       </c>
       <c r="C1220">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1220">
         <v>124.765</v>
@@ -39182,7 +39182,7 @@
         <v>3134.395</v>
       </c>
       <c r="C1221">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1221">
         <v>115.293</v>
@@ -39208,7 +39208,7 @@
         <v>3134.52</v>
       </c>
       <c r="C1222">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1222">
         <v>105.896</v>
@@ -39234,7 +39234,7 @@
         <v>3134.645</v>
       </c>
       <c r="C1223">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1223">
         <v>97.389</v>
@@ -39260,7 +39260,7 @@
         <v>3134.77</v>
       </c>
       <c r="C1224">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1224">
         <v>90.809</v>
@@ -39286,7 +39286,7 @@
         <v>3134.895</v>
       </c>
       <c r="C1225">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1225">
         <v>87.61</v>
@@ -39312,7 +39312,7 @@
         <v>3135.02</v>
       </c>
       <c r="C1226">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1226">
         <v>86.579</v>
@@ -39338,7 +39338,7 @@
         <v>3135.145</v>
       </c>
       <c r="C1227">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1227">
         <v>86.749</v>
@@ -39364,7 +39364,7 @@
         <v>3135.27</v>
       </c>
       <c r="C1228">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1228">
         <v>87.433</v>
@@ -39390,7 +39390,7 @@
         <v>3135.395</v>
       </c>
       <c r="C1229">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1229">
         <v>88.266</v>
@@ -39416,7 +39416,7 @@
         <v>3135.52</v>
       </c>
       <c r="C1230">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1230">
         <v>89.432</v>
@@ -39442,7 +39442,7 @@
         <v>3135.645</v>
       </c>
       <c r="C1231">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1231">
         <v>91.519</v>
@@ -39468,7 +39468,7 @@
         <v>3135.77</v>
       </c>
       <c r="C1232">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1232">
         <v>94.55</v>
@@ -39494,7 +39494,7 @@
         <v>3135.895</v>
       </c>
       <c r="C1233">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1233">
         <v>98.569</v>
@@ -39520,7 +39520,7 @@
         <v>3136.02</v>
       </c>
       <c r="C1234">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1234">
         <v>103.569</v>
@@ -39546,7 +39546,7 @@
         <v>3136.145</v>
       </c>
       <c r="C1235">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1235">
         <v>109.496</v>
@@ -39572,7 +39572,7 @@
         <v>3136.27</v>
       </c>
       <c r="C1236">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1236">
         <v>116.064</v>
@@ -39598,7 +39598,7 @@
         <v>3136.395</v>
       </c>
       <c r="C1237">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1237">
         <v>122.281</v>
@@ -39624,7 +39624,7 @@
         <v>3136.52</v>
       </c>
       <c r="C1238">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1238">
         <v>127.638</v>
@@ -39650,7 +39650,7 @@
         <v>3358.75</v>
       </c>
       <c r="C1239">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1239">
         <v>165.136</v>
@@ -39676,7 +39676,7 @@
         <v>3358.875</v>
       </c>
       <c r="C1240">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1240">
         <v>164.014</v>
@@ -39702,7 +39702,7 @@
         <v>3359</v>
       </c>
       <c r="C1241">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1241">
         <v>162.439</v>
@@ -39728,7 +39728,7 @@
         <v>3359.125</v>
       </c>
       <c r="C1242">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1242">
         <v>160.31</v>
@@ -39754,7 +39754,7 @@
         <v>3359.25</v>
       </c>
       <c r="C1243">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1243">
         <v>157.44</v>
@@ -39780,7 +39780,7 @@
         <v>3359.375</v>
       </c>
       <c r="C1244">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1244">
         <v>153.422</v>
@@ -39806,7 +39806,7 @@
         <v>3359.5</v>
       </c>
       <c r="C1245">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1245">
         <v>147.84</v>
@@ -39832,7 +39832,7 @@
         <v>3359.625</v>
       </c>
       <c r="C1246">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1246">
         <v>140.64</v>
@@ -39858,7 +39858,7 @@
         <v>3359.75</v>
       </c>
       <c r="C1247">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1247">
         <v>132.198</v>
@@ -39884,7 +39884,7 @@
         <v>3359.875</v>
       </c>
       <c r="C1248">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1248">
         <v>123.196</v>
@@ -39910,7 +39910,7 @@
         <v>3360</v>
       </c>
       <c r="C1249">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1249">
         <v>114.584</v>
@@ -39936,7 +39936,7 @@
         <v>3360.125</v>
       </c>
       <c r="C1250">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1250">
         <v>107.323</v>
@@ -39962,7 +39962,7 @@
         <v>3360.25</v>
       </c>
       <c r="C1251">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1251">
         <v>101.88</v>
@@ -39988,7 +39988,7 @@
         <v>3360.375</v>
       </c>
       <c r="C1252">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1252">
         <v>98.134</v>
@@ -40014,7 +40014,7 @@
         <v>3360.5</v>
       </c>
       <c r="C1253">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1253">
         <v>95.837</v>
@@ -40040,7 +40040,7 @@
         <v>3360.625</v>
       </c>
       <c r="C1254">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1254">
         <v>94.979</v>
@@ -40066,7 +40066,7 @@
         <v>3360.75</v>
       </c>
       <c r="C1255">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1255">
         <v>95.501</v>
@@ -40092,7 +40092,7 @@
         <v>3360.875</v>
       </c>
       <c r="C1256">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1256">
         <v>97.212</v>
@@ -40118,7 +40118,7 @@
         <v>3361</v>
       </c>
       <c r="C1257">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1257">
         <v>100.065</v>
@@ -40144,7 +40144,7 @@
         <v>3361.125</v>
       </c>
       <c r="C1258">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1258">
         <v>104.13</v>
@@ -40170,7 +40170,7 @@
         <v>3361.25</v>
       </c>
       <c r="C1259">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1259">
         <v>109.377</v>
@@ -40196,7 +40196,7 @@
         <v>3361.375</v>
       </c>
       <c r="C1260">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1260">
         <v>115.707</v>
@@ -40222,7 +40222,7 @@
         <v>3361.5</v>
       </c>
       <c r="C1261">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1261">
         <v>122.831</v>
@@ -40248,7 +40248,7 @@
         <v>3361.625</v>
       </c>
       <c r="C1262">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1262">
         <v>130.152</v>
@@ -40274,7 +40274,7 @@
         <v>3361.75</v>
       </c>
       <c r="C1263">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1263">
         <v>136.99</v>
@@ -40300,7 +40300,7 @@
         <v>3361.875</v>
       </c>
       <c r="C1264">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1264">
         <v>142.781</v>
@@ -40326,7 +40326,7 @@
         <v>3362</v>
       </c>
       <c r="C1265">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1265">
         <v>147.231</v>
@@ -40352,7 +40352,7 @@
         <v>3170.25</v>
       </c>
       <c r="C1266">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1266">
         <v>168.853</v>
@@ -40378,7 +40378,7 @@
         <v>3170.375</v>
       </c>
       <c r="C1267">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1267">
         <v>165.856</v>
@@ -40404,7 +40404,7 @@
         <v>3170.5</v>
       </c>
       <c r="C1268">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1268">
         <v>159.955</v>
@@ -40430,7 +40430,7 @@
         <v>3170.625</v>
       </c>
       <c r="C1269">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1269">
         <v>149.104</v>
@@ -40456,7 +40456,7 @@
         <v>3170.75</v>
       </c>
       <c r="C1270">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1270">
         <v>134.778</v>
@@ -40482,7 +40482,7 @@
         <v>3170.875</v>
       </c>
       <c r="C1271">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1271">
         <v>120.238</v>
@@ -40508,7 +40508,7 @@
         <v>3171</v>
       </c>
       <c r="C1272">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1272">
         <v>108.694</v>
@@ -40534,7 +40534,7 @@
         <v>3171.125</v>
       </c>
       <c r="C1273">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1273">
         <v>100.896</v>
@@ -40560,7 +40560,7 @@
         <v>3171.25</v>
       </c>
       <c r="C1274">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1274">
         <v>96.618</v>
@@ -40586,7 +40586,7 @@
         <v>3171.375</v>
       </c>
       <c r="C1275">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1275">
         <v>95.766</v>
@@ -40612,7 +40612,7 @@
         <v>3171.5</v>
       </c>
       <c r="C1276">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1276">
         <v>97.091</v>
@@ -40638,7 +40638,7 @@
         <v>3171.625</v>
       </c>
       <c r="C1277">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1277">
         <v>99.891</v>
@@ -40664,7 +40664,7 @@
         <v>3171.75</v>
       </c>
       <c r="C1278">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1278">
         <v>103.796</v>
@@ -40690,7 +40690,7 @@
         <v>3171.875</v>
       </c>
       <c r="C1279">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1279">
         <v>109.267</v>
@@ -40716,7 +40716,7 @@
         <v>3172</v>
       </c>
       <c r="C1280">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1280">
         <v>116.777</v>
@@ -40742,7 +40742,7 @@
         <v>3172.125</v>
       </c>
       <c r="C1281">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1281">
         <v>126.214</v>
@@ -40768,7 +40768,7 @@
         <v>3172.25</v>
       </c>
       <c r="C1282">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1282">
         <v>136.269</v>
@@ -40794,7 +40794,7 @@
         <v>3172.375</v>
       </c>
       <c r="C1283">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1283">
         <v>144.867</v>
@@ -40820,7 +40820,7 @@
         <v>3172.5</v>
       </c>
       <c r="C1284">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1284">
         <v>150.999</v>
@@ -40846,7 +40846,7 @@
         <v>3172.625</v>
       </c>
       <c r="C1285">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1285">
         <v>154.905</v>
@@ -40872,7 +40872,7 @@
         <v>3172.75</v>
       </c>
       <c r="C1286">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1286">
         <v>157.424</v>
@@ -40898,7 +40898,7 @@
         <v>3172.875</v>
       </c>
       <c r="C1287">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1287">
         <v>158.927</v>
@@ -40924,7 +40924,7 @@
         <v>3173</v>
       </c>
       <c r="C1288">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1288">
         <v>159.218</v>
@@ -40950,7 +40950,7 @@
         <v>3173.125</v>
       </c>
       <c r="C1289">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1289">
         <v>158.76</v>
@@ -40976,7 +40976,7 @@
         <v>3173.25</v>
       </c>
       <c r="C1290">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1290">
         <v>158.299</v>
@@ -41002,7 +41002,7 @@
         <v>3063.5</v>
       </c>
       <c r="C1291">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1291">
         <v>169.948</v>
@@ -41028,7 +41028,7 @@
         <v>3063.625</v>
       </c>
       <c r="C1292">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1292">
         <v>159.836</v>
@@ -41054,7 +41054,7 @@
         <v>3063.75</v>
       </c>
       <c r="C1293">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1293">
         <v>147.401</v>
@@ -41080,7 +41080,7 @@
         <v>3063.875</v>
       </c>
       <c r="C1294">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1294">
         <v>134.457</v>
@@ -41106,7 +41106,7 @@
         <v>3064</v>
       </c>
       <c r="C1295">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1295">
         <v>123.423</v>
@@ -41132,7 +41132,7 @@
         <v>3064.125</v>
       </c>
       <c r="C1296">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1296">
         <v>115.873</v>
@@ -41158,7 +41158,7 @@
         <v>3064.25</v>
       </c>
       <c r="C1297">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1297">
         <v>111.501</v>
@@ -41184,7 +41184,7 @@
         <v>3064.375</v>
       </c>
       <c r="C1298">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1298">
         <v>109.967</v>
@@ -41210,7 +41210,7 @@
         <v>3064.5</v>
       </c>
       <c r="C1299">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1299">
         <v>110.674</v>
@@ -41236,7 +41236,7 @@
         <v>3064.625</v>
       </c>
       <c r="C1300">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1300">
         <v>112.497</v>
@@ -41262,7 +41262,7 @@
         <v>3064.75</v>
       </c>
       <c r="C1301">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1301">
         <v>114.56</v>
@@ -41288,7 +41288,7 @@
         <v>3064.875</v>
       </c>
       <c r="C1302">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1302">
         <v>116.974</v>
@@ -41314,7 +41314,7 @@
         <v>3065</v>
       </c>
       <c r="C1303">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1303">
         <v>120.084</v>
@@ -41340,7 +41340,7 @@
         <v>3065.125</v>
       </c>
       <c r="C1304">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1304">
         <v>124.396</v>
@@ -41366,7 +41366,7 @@
         <v>3065.25</v>
       </c>
       <c r="C1305">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1305">
         <v>130.284</v>
@@ -41392,7 +41392,7 @@
         <v>3065.375</v>
       </c>
       <c r="C1306">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1306">
         <v>138.48</v>
@@ -41418,7 +41418,7 @@
         <v>3065.5</v>
       </c>
       <c r="C1307">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1307">
         <v>148.78</v>
@@ -41444,7 +41444,7 @@
         <v>3065.625</v>
       </c>
       <c r="C1308">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1308">
         <v>159.088</v>
@@ -41470,7 +41470,7 @@
         <v>3065.75</v>
       </c>
       <c r="C1309">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1309">
         <v>166.441</v>
@@ -41496,7 +41496,7 @@
         <v>3065.875</v>
       </c>
       <c r="C1310">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1310">
         <v>170.387</v>
@@ -41522,7 +41522,7 @@
         <v>3066</v>
       </c>
       <c r="C1311">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1311">
         <v>173.126</v>
@@ -41541,7 +41541,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="C1:C936" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="C1:C1311" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/first-train.xlsx
+++ b/first-train.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$1:$C$985</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$1:$C$936</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="14">
   <si>
     <t>Well Name</t>
   </si>
@@ -72,15 +72,6 @@
   </si>
   <si>
     <t>JY56-Z1</t>
-  </si>
-  <si>
-    <t>JY1</t>
-  </si>
-  <si>
-    <t>JY2</t>
-  </si>
-  <si>
-    <t>JY3</t>
   </si>
 </sst>
 </file>
@@ -1230,10 +1221,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J985"/>
+  <dimension ref="A1:J936"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O964" sqref="O964"/>
+      <selection activeCell="J1311" sqref="A937:J1311"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -31193,1576 +31184,8 @@
         <v>3.15</v>
       </c>
     </row>
-    <row r="937" spans="1:10">
-      <c r="A937" t="s">
-        <v>14</v>
-      </c>
-      <c r="B937">
-        <v>2340.5</v>
-      </c>
-      <c r="C937">
-        <v>3</v>
-      </c>
-      <c r="D937">
-        <v>153.12</v>
-      </c>
-      <c r="E937">
-        <v>253.806</v>
-      </c>
-      <c r="F937">
-        <v>2.525</v>
-      </c>
-      <c r="G937">
-        <v>17.246</v>
-      </c>
-      <c r="H937">
-        <v>33.322</v>
-      </c>
-      <c r="I937">
-        <v>38.711</v>
-      </c>
-      <c r="J937">
-        <v>169.914</v>
-      </c>
-    </row>
-    <row r="938" spans="1:10">
-      <c r="A938" t="s">
-        <v>14</v>
-      </c>
-      <c r="B938">
-        <v>2340.625</v>
-      </c>
-      <c r="C938">
-        <v>3</v>
-      </c>
-      <c r="D938">
-        <v>145.975</v>
-      </c>
-      <c r="E938">
-        <v>240.244</v>
-      </c>
-      <c r="F938">
-        <v>2.574</v>
-      </c>
-      <c r="G938">
-        <v>15.678</v>
-      </c>
-      <c r="H938">
-        <v>46.821</v>
-      </c>
-      <c r="I938">
-        <v>54.175</v>
-      </c>
-      <c r="J938">
-        <v>173.112</v>
-      </c>
-    </row>
-    <row r="939" spans="1:10">
-      <c r="A939" t="s">
-        <v>14</v>
-      </c>
-      <c r="B939">
-        <v>2340.75</v>
-      </c>
-      <c r="C939">
-        <v>3</v>
-      </c>
-      <c r="D939">
-        <v>135.607</v>
-      </c>
-      <c r="E939">
-        <v>232.306</v>
-      </c>
-      <c r="F939">
-        <v>2.612</v>
-      </c>
-      <c r="G939">
-        <v>14.767</v>
-      </c>
-      <c r="H939">
-        <v>61.029</v>
-      </c>
-      <c r="I939">
-        <v>70.411</v>
-      </c>
-      <c r="J939">
-        <v>175.299</v>
-      </c>
-    </row>
-    <row r="940" spans="1:10">
-      <c r="A940" t="s">
-        <v>14</v>
-      </c>
-      <c r="B940">
-        <v>2340.875</v>
-      </c>
-      <c r="C940">
-        <v>3</v>
-      </c>
-      <c r="D940">
-        <v>121.661</v>
-      </c>
-      <c r="E940">
-        <v>226.861</v>
-      </c>
-      <c r="F940">
-        <v>2.636</v>
-      </c>
-      <c r="G940">
-        <v>14.106</v>
-      </c>
-      <c r="H940">
-        <v>75.475</v>
-      </c>
-      <c r="I940">
-        <v>86.941</v>
-      </c>
-      <c r="J940">
-        <v>176.301</v>
-      </c>
-    </row>
-    <row r="941" spans="1:10">
-      <c r="A941" t="s">
-        <v>14</v>
-      </c>
-      <c r="B941">
-        <v>2341</v>
-      </c>
-      <c r="C941">
-        <v>3</v>
-      </c>
-      <c r="D941">
-        <v>106.112</v>
-      </c>
-      <c r="E941">
-        <v>220.37</v>
-      </c>
-      <c r="F941">
-        <v>2.655</v>
-      </c>
-      <c r="G941">
-        <v>13.214</v>
-      </c>
-      <c r="H941">
-        <v>92.181</v>
-      </c>
-      <c r="I941">
-        <v>106.056</v>
-      </c>
-      <c r="J941">
-        <v>176.747</v>
-      </c>
-    </row>
-    <row r="942" spans="1:10">
-      <c r="A942" t="s">
-        <v>14</v>
-      </c>
-      <c r="B942">
-        <v>2341.125</v>
-      </c>
-      <c r="C942">
-        <v>3</v>
-      </c>
-      <c r="D942">
-        <v>92.999</v>
-      </c>
-      <c r="E942">
-        <v>212.209</v>
-      </c>
-      <c r="F942">
-        <v>2.666</v>
-      </c>
-      <c r="G942">
-        <v>11.995</v>
-      </c>
-      <c r="H942">
-        <v>111.945</v>
-      </c>
-      <c r="I942">
-        <v>128.499</v>
-      </c>
-      <c r="J942">
-        <v>176.415</v>
-      </c>
-    </row>
-    <row r="943" spans="1:10">
-      <c r="A943" t="s">
-        <v>14</v>
-      </c>
-      <c r="B943">
-        <v>2341.25</v>
-      </c>
-      <c r="C943">
-        <v>3</v>
-      </c>
-      <c r="D943">
-        <v>85.939</v>
-      </c>
-      <c r="E943">
-        <v>204.098</v>
-      </c>
-      <c r="F943">
-        <v>2.665</v>
-      </c>
-      <c r="G943">
-        <v>10.806</v>
-      </c>
-      <c r="H943">
-        <v>130.051</v>
-      </c>
-      <c r="I943">
-        <v>148.746</v>
-      </c>
-      <c r="J943">
-        <v>174.816</v>
-      </c>
-    </row>
-    <row r="944" spans="1:10">
-      <c r="A944" t="s">
-        <v>14</v>
-      </c>
-      <c r="B944">
-        <v>2341.375</v>
-      </c>
-      <c r="C944">
-        <v>3</v>
-      </c>
-      <c r="D944">
-        <v>86.238</v>
-      </c>
-      <c r="E944">
-        <v>199.07</v>
-      </c>
-      <c r="F944">
-        <v>2.652</v>
-      </c>
-      <c r="G944">
-        <v>10.088</v>
-      </c>
-      <c r="H944">
-        <v>138.126</v>
-      </c>
-      <c r="I944">
-        <v>157.34</v>
-      </c>
-      <c r="J944">
-        <v>171.526</v>
-      </c>
-    </row>
-    <row r="945" spans="1:10">
-      <c r="A945" t="s">
-        <v>14</v>
-      </c>
-      <c r="B945">
-        <v>2341.5</v>
-      </c>
-      <c r="C945">
-        <v>3</v>
-      </c>
-      <c r="D945">
-        <v>92.871</v>
-      </c>
-      <c r="E945">
-        <v>199.85</v>
-      </c>
-      <c r="F945">
-        <v>2.638</v>
-      </c>
-      <c r="G945">
-        <v>10.054</v>
-      </c>
-      <c r="H945">
-        <v>131.534</v>
-      </c>
-      <c r="I945">
-        <v>149.301</v>
-      </c>
-      <c r="J945">
-        <v>167.604</v>
-      </c>
-    </row>
-    <row r="946" spans="1:10">
-      <c r="A946" t="s">
-        <v>14</v>
-      </c>
-      <c r="B946">
-        <v>2341.625</v>
-      </c>
-      <c r="C946">
-        <v>3</v>
-      </c>
-      <c r="D946">
-        <v>104.034</v>
-      </c>
-      <c r="E946">
-        <v>207.112</v>
-      </c>
-      <c r="F946">
-        <v>2.63</v>
-      </c>
-      <c r="G946">
-        <v>10.707</v>
-      </c>
-      <c r="H946">
-        <v>112.612</v>
-      </c>
-      <c r="I946">
-        <v>127.534</v>
-      </c>
-      <c r="J946">
-        <v>165.869</v>
-      </c>
-    </row>
-    <row r="947" spans="1:10">
-      <c r="A947" t="s">
-        <v>14</v>
-      </c>
-      <c r="B947">
-        <v>2341.75</v>
-      </c>
-      <c r="C947">
-        <v>3</v>
-      </c>
-      <c r="D947">
-        <v>117.25</v>
-      </c>
-      <c r="E947">
-        <v>219.048</v>
-      </c>
-      <c r="F947">
-        <v>2.626</v>
-      </c>
-      <c r="G947">
-        <v>11.886</v>
-      </c>
-      <c r="H947">
-        <v>90.211</v>
-      </c>
-      <c r="I947">
-        <v>102.112</v>
-      </c>
-      <c r="J947">
-        <v>167.024</v>
-      </c>
-    </row>
-    <row r="948" spans="1:10">
-      <c r="A948" t="s">
-        <v>14</v>
-      </c>
-      <c r="B948">
-        <v>2341.875</v>
-      </c>
-      <c r="C948">
-        <v>3</v>
-      </c>
-      <c r="D948">
-        <v>129.089</v>
-      </c>
-      <c r="E948">
-        <v>232.985</v>
-      </c>
-      <c r="F948">
-        <v>2.616</v>
-      </c>
-      <c r="G948">
-        <v>13.356</v>
-      </c>
-      <c r="H948">
-        <v>71.097</v>
-      </c>
-      <c r="I948">
-        <v>80.541</v>
-      </c>
-      <c r="J948">
-        <v>170.159</v>
-      </c>
-    </row>
-    <row r="949" spans="1:10">
-      <c r="A949" t="s">
-        <v>14</v>
-      </c>
-      <c r="B949">
-        <v>2342</v>
-      </c>
-      <c r="C949">
-        <v>3</v>
-      </c>
-      <c r="D949">
-        <v>137.184</v>
-      </c>
-      <c r="E949">
-        <v>245.938</v>
-      </c>
-      <c r="F949">
-        <v>2.604</v>
-      </c>
-      <c r="G949">
-        <v>14.732</v>
-      </c>
-      <c r="H949">
-        <v>57.561</v>
-      </c>
-      <c r="I949">
-        <v>65.27</v>
-      </c>
-      <c r="J949">
-        <v>174.944</v>
-      </c>
-    </row>
-    <row r="950" spans="1:10">
-      <c r="A950" t="s">
-        <v>14</v>
-      </c>
-      <c r="B950">
-        <v>2342.125</v>
-      </c>
-      <c r="C950">
-        <v>3</v>
-      </c>
-      <c r="D950">
-        <v>141.09</v>
-      </c>
-      <c r="E950">
-        <v>256.184</v>
-      </c>
-      <c r="F950">
-        <v>2.6</v>
-      </c>
-      <c r="G950">
-        <v>15.74</v>
-      </c>
-      <c r="H950">
-        <v>47.833</v>
-      </c>
-      <c r="I950">
-        <v>54.243</v>
-      </c>
-      <c r="J950">
-        <v>181.506</v>
-      </c>
-    </row>
-    <row r="951" spans="1:10">
-      <c r="A951" t="s">
-        <v>14</v>
-      </c>
-      <c r="B951">
-        <v>2342.25</v>
-      </c>
-      <c r="C951">
-        <v>3</v>
-      </c>
-      <c r="D951">
-        <v>142.754</v>
-      </c>
-      <c r="E951">
-        <v>263.351</v>
-      </c>
-      <c r="F951">
-        <v>2.61</v>
-      </c>
-      <c r="G951">
-        <v>16.444</v>
-      </c>
-      <c r="H951">
-        <v>40.169</v>
-      </c>
-      <c r="I951">
-        <v>45.522</v>
-      </c>
-      <c r="J951">
-        <v>188.677</v>
-      </c>
-    </row>
-    <row r="952" spans="1:10">
-      <c r="A952" t="s">
-        <v>14</v>
-      </c>
-      <c r="B952">
-        <v>2342.375</v>
-      </c>
-      <c r="C952">
-        <v>3</v>
-      </c>
-      <c r="D952">
-        <v>144.312</v>
-      </c>
-      <c r="E952">
-        <v>268.553</v>
-      </c>
-      <c r="F952">
-        <v>2.626</v>
-      </c>
-      <c r="G952">
-        <v>17.188</v>
-      </c>
-      <c r="H952">
-        <v>33.671</v>
-      </c>
-      <c r="I952">
-        <v>38.148</v>
-      </c>
-      <c r="J952">
-        <v>194.476</v>
-      </c>
-    </row>
-    <row r="953" spans="1:10">
-      <c r="A953" t="s">
-        <v>14</v>
-      </c>
-      <c r="B953">
-        <v>2342.5</v>
-      </c>
-      <c r="C953">
-        <v>3</v>
-      </c>
-      <c r="D953">
-        <v>147.481</v>
-      </c>
-      <c r="E953">
-        <v>272.657</v>
-      </c>
-      <c r="F953">
-        <v>2.636</v>
-      </c>
-      <c r="G953">
-        <v>18.173</v>
-      </c>
-      <c r="H953">
-        <v>28.301</v>
-      </c>
-      <c r="I953">
-        <v>32.108</v>
-      </c>
-      <c r="J953">
-        <v>197.429</v>
-      </c>
-    </row>
-    <row r="954" spans="1:10">
-      <c r="A954" t="s">
-        <v>15</v>
-      </c>
-      <c r="B954">
-        <v>2496.25</v>
-      </c>
-      <c r="C954">
-        <v>3</v>
-      </c>
-      <c r="D954">
-        <v>151.802</v>
-      </c>
-      <c r="E954">
-        <v>80.708</v>
-      </c>
-      <c r="F954">
-        <v>2.618</v>
-      </c>
-      <c r="G954">
-        <v>19.246</v>
-      </c>
-      <c r="H954">
-        <v>26.327</v>
-      </c>
-      <c r="I954">
-        <v>26.831</v>
-      </c>
-      <c r="J954">
-        <v>3.29</v>
-      </c>
-    </row>
-    <row r="955" spans="1:10">
-      <c r="A955" t="s">
-        <v>15</v>
-      </c>
-      <c r="B955">
-        <v>2496.375</v>
-      </c>
-      <c r="C955">
-        <v>3</v>
-      </c>
-      <c r="D955">
-        <v>150.56</v>
-      </c>
-      <c r="E955">
-        <v>78.259</v>
-      </c>
-      <c r="F955">
-        <v>2.616</v>
-      </c>
-      <c r="G955">
-        <v>17.16</v>
-      </c>
-      <c r="H955">
-        <v>36.516</v>
-      </c>
-      <c r="I955">
-        <v>36.789</v>
-      </c>
-      <c r="J955">
-        <v>3.263</v>
-      </c>
-    </row>
-    <row r="956" spans="1:10">
-      <c r="A956" t="s">
-        <v>15</v>
-      </c>
-      <c r="B956">
-        <v>2496.5</v>
-      </c>
-      <c r="C956">
-        <v>3</v>
-      </c>
-      <c r="D956">
-        <v>148.415</v>
-      </c>
-      <c r="E956">
-        <v>77.814</v>
-      </c>
-      <c r="F956">
-        <v>2.612</v>
-      </c>
-      <c r="G956">
-        <v>15.866</v>
-      </c>
-      <c r="H956">
-        <v>44.461</v>
-      </c>
-      <c r="I956">
-        <v>44.502</v>
-      </c>
-      <c r="J956">
-        <v>3.255</v>
-      </c>
-    </row>
-    <row r="957" spans="1:10">
-      <c r="A957" t="s">
-        <v>15</v>
-      </c>
-      <c r="B957">
-        <v>2496.625</v>
-      </c>
-      <c r="C957">
-        <v>3</v>
-      </c>
-      <c r="D957">
-        <v>142.983</v>
-      </c>
-      <c r="E957">
-        <v>78.116</v>
-      </c>
-      <c r="F957">
-        <v>2.605</v>
-      </c>
-      <c r="G957">
-        <v>15.353</v>
-      </c>
-      <c r="H957">
-        <v>49.527</v>
-      </c>
-      <c r="I957">
-        <v>49.604</v>
-      </c>
-      <c r="J957">
-        <v>3.265</v>
-      </c>
-    </row>
-    <row r="958" spans="1:10">
-      <c r="A958" t="s">
-        <v>15</v>
-      </c>
-      <c r="B958">
-        <v>2496.75</v>
-      </c>
-      <c r="C958">
-        <v>3</v>
-      </c>
-      <c r="D958">
-        <v>133.234</v>
-      </c>
-      <c r="E958">
-        <v>77.46</v>
-      </c>
-      <c r="F958">
-        <v>2.603</v>
-      </c>
-      <c r="G958">
-        <v>15.237</v>
-      </c>
-      <c r="H958">
-        <v>54.624</v>
-      </c>
-      <c r="I958">
-        <v>55.078</v>
-      </c>
-      <c r="J958">
-        <v>3.257</v>
-      </c>
-    </row>
-    <row r="959" spans="1:10">
-      <c r="A959" t="s">
-        <v>15</v>
-      </c>
-      <c r="B959">
-        <v>2496.875</v>
-      </c>
-      <c r="C959">
-        <v>3</v>
-      </c>
-      <c r="D959">
-        <v>120.549</v>
-      </c>
-      <c r="E959">
-        <v>74.92</v>
-      </c>
-      <c r="F959">
-        <v>2.613</v>
-      </c>
-      <c r="G959">
-        <v>15.083</v>
-      </c>
-      <c r="H959">
-        <v>63.187</v>
-      </c>
-      <c r="I959">
-        <v>64.212</v>
-      </c>
-      <c r="J959">
-        <v>3.16</v>
-      </c>
-    </row>
-    <row r="960" spans="1:10">
-      <c r="A960" t="s">
-        <v>15</v>
-      </c>
-      <c r="B960">
-        <v>2497</v>
-      </c>
-      <c r="C960">
-        <v>3</v>
-      </c>
-      <c r="D960">
-        <v>108.453</v>
-      </c>
-      <c r="E960">
-        <v>71.101</v>
-      </c>
-      <c r="F960">
-        <v>2.636</v>
-      </c>
-      <c r="G960">
-        <v>14.521</v>
-      </c>
-      <c r="H960">
-        <v>76.799</v>
-      </c>
-      <c r="I960">
-        <v>78.317</v>
-      </c>
-      <c r="J960">
-        <v>2.978</v>
-      </c>
-    </row>
-    <row r="961" spans="1:10">
-      <c r="A961" t="s">
-        <v>15</v>
-      </c>
-      <c r="B961">
-        <v>2497.125</v>
-      </c>
-      <c r="C961">
-        <v>3</v>
-      </c>
-      <c r="D961">
-        <v>100.095</v>
-      </c>
-      <c r="E961">
-        <v>67.138</v>
-      </c>
-      <c r="F961">
-        <v>2.67</v>
-      </c>
-      <c r="G961">
-        <v>13.454</v>
-      </c>
-      <c r="H961">
-        <v>94.197</v>
-      </c>
-      <c r="I961">
-        <v>95.748</v>
-      </c>
-      <c r="J961">
-        <v>2.813</v>
-      </c>
-    </row>
-    <row r="962" spans="1:10">
-      <c r="A962" t="s">
-        <v>15</v>
-      </c>
-      <c r="B962">
-        <v>2497.25</v>
-      </c>
-      <c r="C962">
-        <v>3</v>
-      </c>
-      <c r="D962">
-        <v>96.446</v>
-      </c>
-      <c r="E962">
-        <v>64.124</v>
-      </c>
-      <c r="F962">
-        <v>2.705</v>
-      </c>
-      <c r="G962">
-        <v>12.189</v>
-      </c>
-      <c r="H962">
-        <v>110.384</v>
-      </c>
-      <c r="I962">
-        <v>111.128</v>
-      </c>
-      <c r="J962">
-        <v>2.726</v>
-      </c>
-    </row>
-    <row r="963" spans="1:10">
-      <c r="A963" t="s">
-        <v>15</v>
-      </c>
-      <c r="B963">
-        <v>2497.375</v>
-      </c>
-      <c r="C963">
-        <v>3</v>
-      </c>
-      <c r="D963">
-        <v>96.394</v>
-      </c>
-      <c r="E963">
-        <v>63.014</v>
-      </c>
-      <c r="F963">
-        <v>2.729</v>
-      </c>
-      <c r="G963">
-        <v>11.205</v>
-      </c>
-      <c r="H963">
-        <v>117.869</v>
-      </c>
-      <c r="I963">
-        <v>117.096</v>
-      </c>
-      <c r="J963">
-        <v>2.683</v>
-      </c>
-    </row>
-    <row r="964" spans="1:10">
-      <c r="A964" t="s">
-        <v>15</v>
-      </c>
-      <c r="B964">
-        <v>2497.5</v>
-      </c>
-      <c r="C964">
-        <v>3</v>
-      </c>
-      <c r="D964">
-        <v>99.797</v>
-      </c>
-      <c r="E964">
-        <v>64.426</v>
-      </c>
-      <c r="F964">
-        <v>2.731</v>
-      </c>
-      <c r="G964">
-        <v>10.813</v>
-      </c>
-      <c r="H964">
-        <v>112.273</v>
-      </c>
-      <c r="I964">
-        <v>110.03</v>
-      </c>
-      <c r="J964">
-        <v>2.657</v>
-      </c>
-    </row>
-    <row r="965" spans="1:10">
-      <c r="A965" t="s">
-        <v>15</v>
-      </c>
-      <c r="B965">
-        <v>2497.625</v>
-      </c>
-      <c r="C965">
-        <v>3</v>
-      </c>
-      <c r="D965">
-        <v>106.947</v>
-      </c>
-      <c r="E965">
-        <v>68.135</v>
-      </c>
-      <c r="F965">
-        <v>2.712</v>
-      </c>
-      <c r="G965">
-        <v>11.078</v>
-      </c>
-      <c r="H965">
-        <v>95.933</v>
-      </c>
-      <c r="I965">
-        <v>92.981</v>
-      </c>
-      <c r="J965">
-        <v>2.708</v>
-      </c>
-    </row>
-    <row r="966" spans="1:10">
-      <c r="A966" t="s">
-        <v>15</v>
-      </c>
-      <c r="B966">
-        <v>2497.75</v>
-      </c>
-      <c r="C966">
-        <v>3</v>
-      </c>
-      <c r="D966">
-        <v>116.84</v>
-      </c>
-      <c r="E966">
-        <v>72.884</v>
-      </c>
-      <c r="F966">
-        <v>2.683</v>
-      </c>
-      <c r="G966">
-        <v>11.886</v>
-      </c>
-      <c r="H966">
-        <v>76.457</v>
-      </c>
-      <c r="I966">
-        <v>73.653</v>
-      </c>
-      <c r="J966">
-        <v>2.912</v>
-      </c>
-    </row>
-    <row r="967" spans="1:10">
-      <c r="A967" t="s">
-        <v>15</v>
-      </c>
-      <c r="B967">
-        <v>2497.875</v>
-      </c>
-      <c r="C967">
-        <v>3</v>
-      </c>
-      <c r="D967">
-        <v>126.815</v>
-      </c>
-      <c r="E967">
-        <v>77.012</v>
-      </c>
-      <c r="F967">
-        <v>2.654</v>
-      </c>
-      <c r="G967">
-        <v>13.015</v>
-      </c>
-      <c r="H967">
-        <v>60.34</v>
-      </c>
-      <c r="I967">
-        <v>58.067</v>
-      </c>
-      <c r="J967">
-        <v>3.211</v>
-      </c>
-    </row>
-    <row r="968" spans="1:10">
-      <c r="A968" t="s">
-        <v>15</v>
-      </c>
-      <c r="B968">
-        <v>2498</v>
-      </c>
-      <c r="C968">
-        <v>3</v>
-      </c>
-      <c r="D968">
-        <v>134.138</v>
-      </c>
-      <c r="E968">
-        <v>79.845</v>
-      </c>
-      <c r="F968">
-        <v>2.635</v>
-      </c>
-      <c r="G968">
-        <v>14.137</v>
-      </c>
-      <c r="H968">
-        <v>49.429</v>
-      </c>
-      <c r="I968">
-        <v>47.643</v>
-      </c>
-      <c r="J968">
-        <v>3.468</v>
-      </c>
-    </row>
-    <row r="969" spans="1:10">
-      <c r="A969" t="s">
-        <v>15</v>
-      </c>
-      <c r="B969">
-        <v>2498.125</v>
-      </c>
-      <c r="C969">
-        <v>3</v>
-      </c>
-      <c r="D969">
-        <v>138.153</v>
-      </c>
-      <c r="E969">
-        <v>81.962</v>
-      </c>
-      <c r="F969">
-        <v>2.627</v>
-      </c>
-      <c r="G969">
-        <v>15.065</v>
-      </c>
-      <c r="H969">
-        <v>42.378</v>
-      </c>
-      <c r="I969">
-        <v>40.88</v>
-      </c>
-      <c r="J969">
-        <v>3.63</v>
-      </c>
-    </row>
-    <row r="970" spans="1:10">
-      <c r="A970" t="s">
-        <v>15</v>
-      </c>
-      <c r="B970">
-        <v>2498.25</v>
-      </c>
-      <c r="C970">
-        <v>3</v>
-      </c>
-      <c r="D970">
-        <v>139.942</v>
-      </c>
-      <c r="E970">
-        <v>83.474</v>
-      </c>
-      <c r="F970">
-        <v>2.626</v>
-      </c>
-      <c r="G970">
-        <v>15.876</v>
-      </c>
-      <c r="H970">
-        <v>37.292</v>
-      </c>
-      <c r="I970">
-        <v>35.926</v>
-      </c>
-      <c r="J970">
-        <v>3.726</v>
-      </c>
-    </row>
-    <row r="971" spans="1:10">
-      <c r="A971" t="s">
-        <v>15</v>
-      </c>
-      <c r="B971">
-        <v>2498.375</v>
-      </c>
-      <c r="C971">
-        <v>3</v>
-      </c>
-      <c r="D971">
-        <v>141.31</v>
-      </c>
-      <c r="E971">
-        <v>84.342</v>
-      </c>
-      <c r="F971">
-        <v>2.631</v>
-      </c>
-      <c r="G971">
-        <v>16.722</v>
-      </c>
-      <c r="H971">
-        <v>32.807</v>
-      </c>
-      <c r="I971">
-        <v>31.525</v>
-      </c>
-      <c r="J971">
-        <v>3.789</v>
-      </c>
-    </row>
-    <row r="972" spans="1:10">
-      <c r="A972" t="s">
-        <v>15</v>
-      </c>
-      <c r="B972">
-        <v>2498.5</v>
-      </c>
-      <c r="C972">
-        <v>3</v>
-      </c>
-      <c r="D972">
-        <v>144.403</v>
-      </c>
-      <c r="E972">
-        <v>85.325</v>
-      </c>
-      <c r="F972">
-        <v>2.64</v>
-      </c>
-      <c r="G972">
-        <v>17.555</v>
-      </c>
-      <c r="H972">
-        <v>28.363</v>
-      </c>
-      <c r="I972">
-        <v>27.228</v>
-      </c>
-      <c r="J972">
-        <v>3.842</v>
-      </c>
-    </row>
-    <row r="973" spans="1:10">
-      <c r="A973" t="s">
-        <v>16</v>
-      </c>
-      <c r="B973">
-        <v>2332.811</v>
-      </c>
-      <c r="C973">
-        <v>3</v>
-      </c>
-      <c r="D973">
-        <v>120.948</v>
-      </c>
-      <c r="E973">
-        <v>69.31</v>
-      </c>
-      <c r="F973">
-        <v>2.593</v>
-      </c>
-      <c r="G973">
-        <v>15.715</v>
-      </c>
-      <c r="H973">
-        <v>81.107</v>
-      </c>
-      <c r="I973">
-        <v>79.94</v>
-      </c>
-      <c r="J973">
-        <v>2.697</v>
-      </c>
-    </row>
-    <row r="974" spans="1:10">
-      <c r="A974" t="s">
-        <v>16</v>
-      </c>
-      <c r="B974">
-        <v>2332.936</v>
-      </c>
-      <c r="C974">
-        <v>3</v>
-      </c>
-      <c r="D974">
-        <v>114.038</v>
-      </c>
-      <c r="E974">
-        <v>68.314</v>
-      </c>
-      <c r="F974">
-        <v>2.605</v>
-      </c>
-      <c r="G974">
-        <v>15.237</v>
-      </c>
-      <c r="H974">
-        <v>90.662</v>
-      </c>
-      <c r="I974">
-        <v>89.642</v>
-      </c>
-      <c r="J974">
-        <v>2.493</v>
-      </c>
-    </row>
-    <row r="975" spans="1:10">
-      <c r="A975" t="s">
-        <v>16</v>
-      </c>
-      <c r="B975">
-        <v>2333.061</v>
-      </c>
-      <c r="C975">
-        <v>3</v>
-      </c>
-      <c r="D975">
-        <v>103.32</v>
-      </c>
-      <c r="E975">
-        <v>66.635</v>
-      </c>
-      <c r="F975">
-        <v>2.633</v>
-      </c>
-      <c r="G975">
-        <v>14.332</v>
-      </c>
-      <c r="H975">
-        <v>107.091</v>
-      </c>
-      <c r="I975">
-        <v>106.2</v>
-      </c>
-      <c r="J975">
-        <v>2.289</v>
-      </c>
-    </row>
-    <row r="976" spans="1:10">
-      <c r="A976" t="s">
-        <v>16</v>
-      </c>
-      <c r="B976">
-        <v>2333.186</v>
-      </c>
-      <c r="C976">
-        <v>3</v>
-      </c>
-      <c r="D976">
-        <v>91.981</v>
-      </c>
-      <c r="E976">
-        <v>63.92</v>
-      </c>
-      <c r="F976">
-        <v>2.667</v>
-      </c>
-      <c r="G976">
-        <v>13.212</v>
-      </c>
-      <c r="H976">
-        <v>131.202</v>
-      </c>
-      <c r="I976">
-        <v>130.331</v>
-      </c>
-      <c r="J976">
-        <v>2.063</v>
-      </c>
-    </row>
-    <row r="977" spans="1:10">
-      <c r="A977" t="s">
-        <v>16</v>
-      </c>
-      <c r="B977">
-        <v>2333.311</v>
-      </c>
-      <c r="C977">
-        <v>3</v>
-      </c>
-      <c r="D977">
-        <v>83.162</v>
-      </c>
-      <c r="E977">
-        <v>60.318</v>
-      </c>
-      <c r="F977">
-        <v>2.695</v>
-      </c>
-      <c r="G977">
-        <v>12.043</v>
-      </c>
-      <c r="H977">
-        <v>164.042</v>
-      </c>
-      <c r="I977">
-        <v>163.006</v>
-      </c>
-      <c r="J977">
-        <v>1.873</v>
-      </c>
-    </row>
-    <row r="978" spans="1:10">
-      <c r="A978" t="s">
-        <v>16</v>
-      </c>
-      <c r="B978">
-        <v>2333.436</v>
-      </c>
-      <c r="C978">
-        <v>3</v>
-      </c>
-      <c r="D978">
-        <v>79.071</v>
-      </c>
-      <c r="E978">
-        <v>57.42</v>
-      </c>
-      <c r="F978">
-        <v>2.704</v>
-      </c>
-      <c r="G978">
-        <v>11.004</v>
-      </c>
-      <c r="H978">
-        <v>203.556</v>
-      </c>
-      <c r="I978">
-        <v>201.894</v>
-      </c>
-      <c r="J978">
-        <v>1.861</v>
-      </c>
-    </row>
-    <row r="979" spans="1:10">
-      <c r="A979" t="s">
-        <v>16</v>
-      </c>
-      <c r="B979">
-        <v>2333.561</v>
-      </c>
-      <c r="C979">
-        <v>3</v>
-      </c>
-      <c r="D979">
-        <v>79.154</v>
-      </c>
-      <c r="E979">
-        <v>56.325</v>
-      </c>
-      <c r="F979">
-        <v>2.695</v>
-      </c>
-      <c r="G979">
-        <v>10.234</v>
-      </c>
-      <c r="H979">
-        <v>238.512</v>
-      </c>
-      <c r="I979">
-        <v>235.617</v>
-      </c>
-      <c r="J979">
-        <v>1.959</v>
-      </c>
-    </row>
-    <row r="980" spans="1:10">
-      <c r="A980" t="s">
-        <v>16</v>
-      </c>
-      <c r="B980">
-        <v>2333.686</v>
-      </c>
-      <c r="C980">
-        <v>3</v>
-      </c>
-      <c r="D980">
-        <v>82.979</v>
-      </c>
-      <c r="E980">
-        <v>57.539</v>
-      </c>
-      <c r="F980">
-        <v>2.674</v>
-      </c>
-      <c r="G980">
-        <v>9.948</v>
-      </c>
-      <c r="H980">
-        <v>252.014</v>
-      </c>
-      <c r="I980">
-        <v>247.561</v>
-      </c>
-      <c r="J980">
-        <v>2.01</v>
-      </c>
-    </row>
-    <row r="981" spans="1:10">
-      <c r="A981" t="s">
-        <v>16</v>
-      </c>
-      <c r="B981">
-        <v>2333.811</v>
-      </c>
-      <c r="C981">
-        <v>3</v>
-      </c>
-      <c r="D981">
-        <v>90.174</v>
-      </c>
-      <c r="E981">
-        <v>61.104</v>
-      </c>
-      <c r="F981">
-        <v>2.651</v>
-      </c>
-      <c r="G981">
-        <v>10.396</v>
-      </c>
-      <c r="H981">
-        <v>235.304</v>
-      </c>
-      <c r="I981">
-        <v>229.769</v>
-      </c>
-      <c r="J981">
-        <v>2.094</v>
-      </c>
-    </row>
-    <row r="982" spans="1:10">
-      <c r="A982" t="s">
-        <v>16</v>
-      </c>
-      <c r="B982">
-        <v>2333.936</v>
-      </c>
-      <c r="C982">
-        <v>3</v>
-      </c>
-      <c r="D982">
-        <v>100.108</v>
-      </c>
-      <c r="E982">
-        <v>66.213</v>
-      </c>
-      <c r="F982">
-        <v>2.632</v>
-      </c>
-      <c r="G982">
-        <v>11.642</v>
-      </c>
-      <c r="H982">
-        <v>196.754</v>
-      </c>
-      <c r="I982">
-        <v>191.042</v>
-      </c>
-      <c r="J982">
-        <v>2.328</v>
-      </c>
-    </row>
-    <row r="983" spans="1:10">
-      <c r="A983" t="s">
-        <v>16</v>
-      </c>
-      <c r="B983">
-        <v>2334.061</v>
-      </c>
-      <c r="C983">
-        <v>3</v>
-      </c>
-      <c r="D983">
-        <v>110.789</v>
-      </c>
-      <c r="E983">
-        <v>70.977</v>
-      </c>
-      <c r="F983">
-        <v>2.618</v>
-      </c>
-      <c r="G983">
-        <v>13.488</v>
-      </c>
-      <c r="H983">
-        <v>150.992</v>
-      </c>
-      <c r="I983">
-        <v>146.017</v>
-      </c>
-      <c r="J983">
-        <v>2.687</v>
-      </c>
-    </row>
-    <row r="984" spans="1:10">
-      <c r="A984" t="s">
-        <v>16</v>
-      </c>
-      <c r="B984">
-        <v>2334.186</v>
-      </c>
-      <c r="C984">
-        <v>3</v>
-      </c>
-      <c r="D984">
-        <v>118.675</v>
-      </c>
-      <c r="E984">
-        <v>73.812</v>
-      </c>
-      <c r="F984">
-        <v>2.608</v>
-      </c>
-      <c r="G984">
-        <v>15.235</v>
-      </c>
-      <c r="H984">
-        <v>112.447</v>
-      </c>
-      <c r="I984">
-        <v>108.553</v>
-      </c>
-      <c r="J984">
-        <v>2.954</v>
-      </c>
-    </row>
-    <row r="985" spans="1:10">
-      <c r="A985" t="s">
-        <v>16</v>
-      </c>
-      <c r="B985">
-        <v>2334.311</v>
-      </c>
-      <c r="C985">
-        <v>3</v>
-      </c>
-      <c r="D985">
-        <v>122.528</v>
-      </c>
-      <c r="E985">
-        <v>75.102</v>
-      </c>
-      <c r="F985">
-        <v>2.601</v>
-      </c>
-      <c r="G985">
-        <v>16.413</v>
-      </c>
-      <c r="H985">
-        <v>85.737</v>
-      </c>
-      <c r="I985">
-        <v>82.877</v>
-      </c>
-      <c r="J985">
-        <v>3.048</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="C1:C985" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="C1:C936" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
